--- a/Class_Notes/2A_Fluid_Mech/FM2_2223_GANTT_chart_v01_16sep22.xlsx
+++ b/Class_Notes/2A_Fluid_Mech/FM2_2223_GANTT_chart_v01_16sep22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarkdownMaster\Class_Notes\2A_Fluid_Mech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9E17B0-536A-42D2-BC26-50FBE55C25D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73CE74A-3FF3-435E-A762-F3619A2D1C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="142">
   <si>
     <t>Introduction</t>
   </si>
@@ -1265,7 +1265,7 @@
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2366,7 +2366,9 @@
         <v>3</v>
       </c>
       <c r="M9" s="16"/>
-      <c r="N9" s="26"/>
+      <c r="N9" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="Q9" s="17"/>
       <c r="R9" s="16"/>
       <c r="V9" s="17"/>
@@ -2415,7 +2417,9 @@
         <v>5</v>
       </c>
       <c r="M10" s="16"/>
-      <c r="N10" s="26"/>
+      <c r="N10" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="Q10" s="17"/>
       <c r="R10" s="16"/>
       <c r="V10" s="17"/>
@@ -2464,7 +2468,9 @@
         <v>7</v>
       </c>
       <c r="M11" s="16"/>
-      <c r="N11" s="26"/>
+      <c r="N11" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="Q11" s="17"/>
       <c r="R11" s="16"/>
       <c r="V11" s="17"/>
@@ -2513,7 +2519,9 @@
         <v>9</v>
       </c>
       <c r="M12" s="16"/>
-      <c r="N12" s="26"/>
+      <c r="N12" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="Q12" s="17"/>
       <c r="R12" s="16"/>
       <c r="V12" s="17"/>
@@ -2610,7 +2618,9 @@
         <v>12</v>
       </c>
       <c r="M14" s="16"/>
-      <c r="O14" s="26"/>
+      <c r="O14" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="Q14" s="17"/>
       <c r="R14" s="16"/>
       <c r="V14" s="17"/>
@@ -2659,7 +2669,9 @@
         <v>14</v>
       </c>
       <c r="M15" s="16"/>
-      <c r="O15" s="26"/>
+      <c r="O15" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="Q15" s="17"/>
       <c r="R15" s="16"/>
       <c r="V15" s="17"/>

--- a/Class_Notes/2A_Fluid_Mech/FM2_2223_GANTT_chart_v01_16sep22.xlsx
+++ b/Class_Notes/2A_Fluid_Mech/FM2_2223_GANTT_chart_v01_16sep22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarkdownMaster\Class_Notes\2A_Fluid_Mech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73CE74A-3FF3-435E-A762-F3619A2D1C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407D6F41-4703-4B42-90EC-BC8BD9314B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="142">
   <si>
     <t>Introduction</t>
   </si>
@@ -1265,7 +1265,7 @@
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2720,7 +2720,9 @@
         <v>17</v>
       </c>
       <c r="M16" s="16"/>
-      <c r="P16" s="26"/>
+      <c r="P16" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="Q16" s="17"/>
       <c r="R16" s="16"/>
       <c r="V16" s="17"/>

--- a/Class_Notes/2A_Fluid_Mech/FM2_2223_GANTT_chart_v01_16sep22.xlsx
+++ b/Class_Notes/2A_Fluid_Mech/FM2_2223_GANTT_chart_v01_16sep22.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarkdownMaster\Class_Notes\2A_Fluid_Mech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasper\Documents\MarkdownMaster\Class_Notes\2A_Fluid_Mech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407D6F41-4703-4B42-90EC-BC8BD9314B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22320" windowHeight="13180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GANTT chart for students" sheetId="12" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="142">
   <si>
     <t>Introduction</t>
   </si>
@@ -468,7 +464,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
@@ -1257,7 +1253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F2FF94-36CA-FC42-A249-6FCDEA59468B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
@@ -1265,21 +1261,21 @@
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="10.796875" style="1"/>
-    <col min="7" max="7" width="6.69921875" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" customWidth="1"/>
+    <col min="1" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="12" max="12" width="33" bestFit="1" customWidth="1"/>
     <col min="13" max="72" width="3" style="1" customWidth="1"/>
-    <col min="73" max="73" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:73" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -1470,7 +1466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="63" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:73" s="63" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A2" s="65" t="s">
         <v>116</v>
       </c>
@@ -1664,7 +1660,7 @@
         <v>44904</v>
       </c>
     </row>
-    <row r="3" spans="1:73" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:73" ht="21" x14ac:dyDescent="0.5">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1857,7 +1853,7 @@
       </c>
       <c r="BU3" s="1"/>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -2049,7 +2045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>117</v>
       </c>
@@ -2114,7 +2110,7 @@
       <c r="BT5" s="24"/>
       <c r="BU5" s="3"/>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>0</v>
       </c>
@@ -2205,7 +2201,7 @@
       <c r="BT6" s="47"/>
       <c r="BU6" s="3"/>
     </row>
-    <row r="7" spans="1:73" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:73" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2294,7 +2290,7 @@
       <c r="BT7" s="47"/>
       <c r="BU7" s="3"/>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="e">
         <f>A7+#REF!</f>
         <v>#REF!</v>
@@ -2342,7 +2338,7 @@
       <c r="BP8" s="16"/>
       <c r="BT8" s="17"/>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="e">
         <f>A8+#REF!</f>
         <v>#REF!</v>
@@ -2393,7 +2389,7 @@
       <c r="BP9" s="16"/>
       <c r="BT9" s="17"/>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="e">
         <f>A9+#REF!</f>
         <v>#REF!</v>
@@ -2444,7 +2440,7 @@
       <c r="BP10" s="16"/>
       <c r="BT10" s="17"/>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="e">
         <f>A10+#REF!</f>
         <v>#REF!</v>
@@ -2495,7 +2491,7 @@
       <c r="BP11" s="16"/>
       <c r="BT11" s="17"/>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="e">
         <f>A11+#REF!</f>
         <v>#REF!</v>
@@ -2546,7 +2542,7 @@
       <c r="BP12" s="16"/>
       <c r="BT12" s="17"/>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="e">
         <f>A12+#REF!</f>
         <v>#REF!</v>
@@ -2594,7 +2590,7 @@
       <c r="BP13" s="16"/>
       <c r="BT13" s="17"/>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="e">
         <f>A13+#REF!</f>
         <v>#REF!</v>
@@ -2645,7 +2641,7 @@
       <c r="BP14" s="16"/>
       <c r="BT14" s="17"/>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="e">
         <f>A14+#REF!</f>
         <v>#REF!</v>
@@ -2696,7 +2692,7 @@
       <c r="BP15" s="16"/>
       <c r="BT15" s="17"/>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="e">
         <f>A15+#REF!</f>
         <v>#REF!</v>
@@ -2747,7 +2743,7 @@
       <c r="BP16" s="16"/>
       <c r="BT16" s="17"/>
     </row>
-    <row r="17" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="e">
         <f>A16+#REF!</f>
         <v>#REF!</v>
@@ -2774,7 +2770,9 @@
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
       <c r="P17" s="28"/>
-      <c r="Q17" s="29"/>
+      <c r="Q17" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="R17" s="27"/>
       <c r="S17" s="28"/>
       <c r="T17" s="28"/>
@@ -2831,7 +2829,7 @@
       <c r="BS17" s="28"/>
       <c r="BT17" s="30"/>
     </row>
-    <row r="18" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="e">
         <f>A17+#REF!</f>
         <v>#REF!</v>
@@ -2915,7 +2913,7 @@
       <c r="BS18" s="28"/>
       <c r="BT18" s="30"/>
     </row>
-    <row r="19" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="e">
         <f>A18+#REF!</f>
         <v>#REF!</v>
@@ -3000,7 +2998,7 @@
       <c r="BS19" s="28"/>
       <c r="BT19" s="30"/>
     </row>
-    <row r="20" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="e">
         <f>A19+#REF!</f>
         <v>#REF!</v>
@@ -3091,7 +3089,7 @@
       <c r="BS20" s="28"/>
       <c r="BT20" s="30"/>
     </row>
-    <row r="21" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="e">
         <f>A20+#REF!</f>
         <v>#REF!</v>
@@ -3176,7 +3174,7 @@
       <c r="BS21" s="28"/>
       <c r="BT21" s="30"/>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="e">
         <f>A21+#REF!</f>
         <v>#REF!</v>
@@ -3225,7 +3223,7 @@
       <c r="BP22" s="16"/>
       <c r="BT22" s="17"/>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="e">
         <f>A22+#REF!</f>
         <v>#REF!</v>
@@ -3274,7 +3272,7 @@
       <c r="BP23" s="16"/>
       <c r="BT23" s="17"/>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="e">
         <f>A23+#REF!</f>
         <v>#REF!</v>
@@ -3323,7 +3321,7 @@
       <c r="BP24" s="16"/>
       <c r="BT24" s="17"/>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="e">
         <f>A24+#REF!</f>
         <v>#REF!</v>
@@ -3372,7 +3370,7 @@
       <c r="BP25" s="16"/>
       <c r="BT25" s="17"/>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="e">
         <f>A25+#REF!</f>
         <v>#REF!</v>
@@ -3421,7 +3419,7 @@
       <c r="BP26" s="16"/>
       <c r="BT26" s="17"/>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="e">
         <f>A26+#REF!</f>
         <v>#REF!</v>
@@ -3470,7 +3468,7 @@
       <c r="BP27" s="16"/>
       <c r="BT27" s="17"/>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="e">
         <f>A27+#REF!</f>
         <v>#REF!</v>
@@ -3519,7 +3517,7 @@
       <c r="BP28" s="16"/>
       <c r="BT28" s="17"/>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="e">
         <f>A28+#REF!</f>
         <v>#REF!</v>
@@ -3568,7 +3566,7 @@
       <c r="BP29" s="16"/>
       <c r="BT29" s="17"/>
     </row>
-    <row r="30" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="e">
         <f>A29+#REF!</f>
         <v>#REF!</v>
@@ -3649,7 +3647,7 @@
       <c r="BS30" s="34"/>
       <c r="BT30" s="35"/>
     </row>
-    <row r="31" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="e">
         <f>A30+#REF!</f>
         <v>#REF!</v>
@@ -3736,7 +3734,7 @@
       <c r="BS31" s="34"/>
       <c r="BT31" s="35"/>
     </row>
-    <row r="32" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="e">
         <f>A31+#REF!</f>
         <v>#REF!</v>
@@ -3826,7 +3824,7 @@
       <c r="BS32" s="49"/>
       <c r="BT32" s="47"/>
     </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="e">
         <f>A32+#REF!</f>
         <v>#REF!</v>
@@ -3876,7 +3874,7 @@
       <c r="BP33" s="16"/>
       <c r="BT33" s="17"/>
     </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="e">
         <f>A33+#REF!</f>
         <v>#REF!</v>
@@ -3926,7 +3924,7 @@
       <c r="BP34" s="16"/>
       <c r="BT34" s="17"/>
     </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="e">
         <f>A34+#REF!</f>
         <v>#REF!</v>
@@ -3976,7 +3974,7 @@
       <c r="BP35" s="16"/>
       <c r="BT35" s="17"/>
     </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="e">
         <f>A35+#REF!</f>
         <v>#REF!</v>
@@ -4026,7 +4024,7 @@
       <c r="BP36" s="16"/>
       <c r="BT36" s="17"/>
     </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="e">
         <f>A36+#REF!</f>
         <v>#REF!</v>
@@ -4077,7 +4075,7 @@
       <c r="BP37" s="16"/>
       <c r="BT37" s="17"/>
     </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="e">
         <f>A37+#REF!</f>
         <v>#REF!</v>
@@ -4129,7 +4127,7 @@
       <c r="BP38" s="16"/>
       <c r="BT38" s="17"/>
     </row>
-    <row r="39" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="e">
         <f>A38+#REF!</f>
         <v>#REF!</v>
@@ -4212,7 +4210,7 @@
       <c r="BS39" s="34"/>
       <c r="BT39" s="35"/>
     </row>
-    <row r="40" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="e">
         <f>A39+#REF!</f>
         <v>#REF!</v>
@@ -4295,7 +4293,7 @@
       <c r="BS40" s="34"/>
       <c r="BT40" s="35"/>
     </row>
-    <row r="41" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="e">
         <f>A40+#REF!</f>
         <v>#REF!</v>
@@ -4385,7 +4383,7 @@
       <c r="BS41" s="49"/>
       <c r="BT41" s="47"/>
     </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="e">
         <f>A41+#REF!</f>
         <v>#REF!</v>
@@ -4435,7 +4433,7 @@
       <c r="BP42" s="16"/>
       <c r="BT42" s="17"/>
     </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="e">
         <f>A42+#REF!</f>
         <v>#REF!</v>
@@ -4483,7 +4481,7 @@
       <c r="BP43" s="16"/>
       <c r="BT43" s="17"/>
     </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="e">
         <f>A43+#REF!</f>
         <v>#REF!</v>
@@ -4531,7 +4529,7 @@
       <c r="BP44" s="16"/>
       <c r="BT44" s="17"/>
     </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="e">
         <f>A44+#REF!</f>
         <v>#REF!</v>
@@ -4579,7 +4577,7 @@
       <c r="BP45" s="16"/>
       <c r="BT45" s="17"/>
     </row>
-    <row r="46" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="e">
         <f>A45+#REF!</f>
         <v>#REF!</v>
@@ -4633,7 +4631,7 @@
       <c r="BP46" s="16"/>
       <c r="BT46" s="17"/>
     </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="e">
         <f>A46+#REF!</f>
         <v>#REF!</v>
@@ -4682,7 +4680,7 @@
       <c r="BP47" s="16"/>
       <c r="BT47" s="17"/>
     </row>
-    <row r="48" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="e">
         <f>A47+#REF!</f>
         <v>#REF!</v>
@@ -4731,7 +4729,7 @@
       <c r="BP48" s="16"/>
       <c r="BT48" s="17"/>
     </row>
-    <row r="49" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="e">
         <f>A48+#REF!</f>
         <v>#REF!</v>
@@ -4815,7 +4813,7 @@
       <c r="BS49" s="28"/>
       <c r="BT49" s="30"/>
     </row>
-    <row r="50" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="e">
         <f>A49+#REF!</f>
         <v>#REF!</v>
@@ -4900,7 +4898,7 @@
       <c r="BS50" s="28"/>
       <c r="BT50" s="30"/>
     </row>
-    <row r="51" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="e">
         <f>A50+#REF!</f>
         <v>#REF!</v>
@@ -4985,7 +4983,7 @@
       <c r="BS51" s="28"/>
       <c r="BT51" s="30"/>
     </row>
-    <row r="52" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="e">
         <f>A51+#REF!</f>
         <v>#REF!</v>
@@ -5076,7 +5074,7 @@
       <c r="BS52" s="28"/>
       <c r="BT52" s="30"/>
     </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="e">
         <f>A52+#REF!</f>
         <v>#REF!</v>
@@ -5126,7 +5124,7 @@
       <c r="BP53" s="16"/>
       <c r="BT53" s="17"/>
     </row>
-    <row r="54" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="e">
         <f>A53+#REF!</f>
         <v>#REF!</v>
@@ -5207,7 +5205,7 @@
       <c r="BS54" s="34"/>
       <c r="BT54" s="35"/>
     </row>
-    <row r="55" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="e">
         <f>A54+#REF!</f>
         <v>#REF!</v>
@@ -5288,7 +5286,7 @@
       <c r="BS55" s="34"/>
       <c r="BT55" s="35"/>
     </row>
-    <row r="56" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="e">
         <f>A55+#REF!</f>
         <v>#REF!</v>
@@ -5376,7 +5374,7 @@
       <c r="BS56" s="49"/>
       <c r="BT56" s="47"/>
     </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="e">
         <f>A56+#REF!</f>
         <v>#REF!</v>
@@ -5423,7 +5421,7 @@
       <c r="BP57" s="16"/>
       <c r="BT57" s="17"/>
     </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="e">
         <f>A57+#REF!</f>
         <v>#REF!</v>
@@ -5471,7 +5469,7 @@
       <c r="BP58" s="16"/>
       <c r="BT58" s="17"/>
     </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="e">
         <f>A58+#REF!</f>
         <v>#REF!</v>
@@ -5518,7 +5516,7 @@
       <c r="BP59" s="16"/>
       <c r="BT59" s="17"/>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="e">
         <f>A59+#REF!</f>
         <v>#REF!</v>
@@ -5565,7 +5563,7 @@
       <c r="BP60" s="16"/>
       <c r="BT60" s="17"/>
     </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="e">
         <f>A60+#REF!</f>
         <v>#REF!</v>
@@ -5612,7 +5610,7 @@
       <c r="BP61" s="16"/>
       <c r="BT61" s="17"/>
     </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="e">
         <f>A61+#REF!</f>
         <v>#REF!</v>
@@ -5659,7 +5657,7 @@
       <c r="BP62" s="16"/>
       <c r="BT62" s="17"/>
     </row>
-    <row r="63" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="e">
         <f>A62+#REF!</f>
         <v>#REF!</v>
@@ -5745,7 +5743,7 @@
       <c r="BS63" s="28"/>
       <c r="BT63" s="30"/>
     </row>
-    <row r="64" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="e">
         <f>A63+#REF!</f>
         <v>#REF!</v>
@@ -5836,7 +5834,7 @@
       <c r="BS64" s="28"/>
       <c r="BT64" s="30"/>
     </row>
-    <row r="65" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="e">
         <f>A64+#REF!</f>
         <v>#REF!</v>
@@ -5921,7 +5919,7 @@
       <c r="BS65" s="28"/>
       <c r="BT65" s="30"/>
     </row>
-    <row r="66" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="e">
         <f>A65+#REF!</f>
         <v>#REF!</v>
@@ -5970,7 +5968,7 @@
       <c r="BP66" s="16"/>
       <c r="BT66" s="17"/>
     </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="e">
         <f>A66+#REF!</f>
         <v>#REF!</v>
@@ -6019,7 +6017,7 @@
       <c r="BP67" s="16"/>
       <c r="BT67" s="17"/>
     </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="e">
         <f>A67+#REF!</f>
         <v>#REF!</v>
@@ -6068,7 +6066,7 @@
       <c r="BP68" s="16"/>
       <c r="BT68" s="17"/>
     </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="e">
         <f>A68+#REF!</f>
         <v>#REF!</v>
@@ -6117,7 +6115,7 @@
       <c r="BP69" s="16"/>
       <c r="BT69" s="17"/>
     </row>
-    <row r="70" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="e">
         <f>A69+#REF!</f>
         <v>#REF!</v>
@@ -6198,7 +6196,7 @@
       <c r="BS70" s="34"/>
       <c r="BT70" s="35"/>
     </row>
-    <row r="71" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="e">
         <f>A70+#REF!</f>
         <v>#REF!</v>
@@ -6285,7 +6283,7 @@
       <c r="BS71" s="34"/>
       <c r="BT71" s="35"/>
     </row>
-    <row r="72" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="e">
         <f>A71+#REF!</f>
         <v>#REF!</v>
@@ -6373,7 +6371,7 @@
       <c r="BS72" s="49"/>
       <c r="BT72" s="47"/>
     </row>
-    <row r="73" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="e">
         <f>A72+#REF!</f>
         <v>#REF!</v>
@@ -6422,7 +6420,7 @@
       <c r="BP73" s="16"/>
       <c r="BT73" s="17"/>
     </row>
-    <row r="74" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="e">
         <f>A73+#REF!</f>
         <v>#REF!</v>
@@ -6471,7 +6469,7 @@
       <c r="BP74" s="16"/>
       <c r="BT74" s="17"/>
     </row>
-    <row r="75" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="e">
         <f>A74+#REF!</f>
         <v>#REF!</v>
@@ -6520,7 +6518,7 @@
       <c r="BP75" s="16"/>
       <c r="BT75" s="17"/>
     </row>
-    <row r="76" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="e">
         <f>A75+#REF!</f>
         <v>#REF!</v>
@@ -6569,7 +6567,7 @@
       <c r="BP76" s="16"/>
       <c r="BT76" s="17"/>
     </row>
-    <row r="77" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="e">
         <f>A76+#REF!</f>
         <v>#REF!</v>
@@ -6619,7 +6617,7 @@
       <c r="BP77" s="16"/>
       <c r="BT77" s="17"/>
     </row>
-    <row r="78" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="e">
         <f>A77+#REF!</f>
         <v>#REF!</v>
@@ -6703,7 +6701,7 @@
       <c r="BS78" s="28"/>
       <c r="BT78" s="30"/>
     </row>
-    <row r="79" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="e">
         <f>A78+#REF!</f>
         <v>#REF!</v>
@@ -6794,7 +6792,7 @@
       <c r="BS79" s="28"/>
       <c r="BT79" s="30"/>
     </row>
-    <row r="80" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="e">
         <f>A79+#REF!</f>
         <v>#REF!</v>
@@ -6879,7 +6877,7 @@
       <c r="BS80" s="28"/>
       <c r="BT80" s="30"/>
     </row>
-    <row r="81" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="e">
         <f>A80+#REF!</f>
         <v>#REF!</v>
@@ -6928,7 +6926,7 @@
       <c r="BP81" s="16"/>
       <c r="BT81" s="17"/>
     </row>
-    <row r="82" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="e">
         <f>A81+#REF!</f>
         <v>#REF!</v>
@@ -7009,7 +7007,7 @@
       <c r="BS82" s="34"/>
       <c r="BT82" s="35"/>
     </row>
-    <row r="83" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="e">
         <f>A82+#REF!</f>
         <v>#REF!</v>
@@ -7096,7 +7094,7 @@
       <c r="BS83" s="34"/>
       <c r="BT83" s="35"/>
     </row>
-    <row r="84" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="e">
         <f>A83+#REF!</f>
         <v>#REF!</v>
@@ -7184,7 +7182,7 @@
       <c r="BS84" s="49"/>
       <c r="BT84" s="47"/>
     </row>
-    <row r="85" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="e">
         <f>A84+#REF!</f>
         <v>#REF!</v>
@@ -7233,7 +7231,7 @@
       <c r="BP85" s="16"/>
       <c r="BT85" s="17"/>
     </row>
-    <row r="86" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="e">
         <f>A85+#REF!</f>
         <v>#REF!</v>
@@ -7282,7 +7280,7 @@
       <c r="BP86" s="16"/>
       <c r="BT86" s="17"/>
     </row>
-    <row r="87" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="e">
         <f>A86+#REF!</f>
         <v>#REF!</v>
@@ -7331,7 +7329,7 @@
       <c r="BP87" s="16"/>
       <c r="BT87" s="17"/>
     </row>
-    <row r="88" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="e">
         <f>A87+#REF!</f>
         <v>#REF!</v>
@@ -7380,7 +7378,7 @@
       <c r="BP88" s="16"/>
       <c r="BT88" s="17"/>
     </row>
-    <row r="89" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="e">
         <f>A88+#REF!</f>
         <v>#REF!</v>
@@ -7428,7 +7426,7 @@
       <c r="BP89" s="16"/>
       <c r="BT89" s="17"/>
     </row>
-    <row r="90" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="e">
         <f>A89+#REF!</f>
         <v>#REF!</v>
@@ -7482,7 +7480,7 @@
       <c r="BP90" s="16"/>
       <c r="BT90" s="17"/>
     </row>
-    <row r="91" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="e">
         <f>A90+#REF!</f>
         <v>#REF!</v>
@@ -7566,7 +7564,7 @@
       <c r="BS91" s="28"/>
       <c r="BT91" s="30"/>
     </row>
-    <row r="92" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="e">
         <f>A91+#REF!</f>
         <v>#REF!</v>
@@ -7651,7 +7649,7 @@
       <c r="BS92" s="28"/>
       <c r="BT92" s="30"/>
     </row>
-    <row r="93" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="e">
         <f>A92+#REF!</f>
         <v>#REF!</v>
@@ -7736,7 +7734,7 @@
       <c r="BS93" s="28"/>
       <c r="BT93" s="30"/>
     </row>
-    <row r="94" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="e">
         <f>A93+#REF!</f>
         <v>#REF!</v>
@@ -7817,7 +7815,7 @@
       <c r="BS94" s="34"/>
       <c r="BT94" s="35"/>
     </row>
-    <row r="95" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="e">
         <f>A94+#REF!</f>
         <v>#REF!</v>
@@ -7903,7 +7901,7 @@
       <c r="BS95" s="34"/>
       <c r="BT95" s="35"/>
     </row>
-    <row r="96" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="e">
         <f>A95+#REF!</f>
         <v>#REF!</v>
@@ -7993,7 +7991,7 @@
       <c r="BS96" s="52"/>
       <c r="BT96" s="53"/>
     </row>
-    <row r="97" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="e">
         <f>A96+#REF!</f>
         <v>#REF!</v>
@@ -8078,7 +8076,7 @@
       <c r="BS97" s="34"/>
       <c r="BT97" s="35"/>
     </row>
-    <row r="98" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="e">
         <f>A97+#REF!</f>
         <v>#REF!</v>
@@ -8167,7 +8165,7 @@
       <c r="BS98" s="34"/>
       <c r="BT98" s="35"/>
     </row>
-    <row r="99" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="e">
         <f>A98+#REF!</f>
         <v>#REF!</v>
@@ -8221,7 +8219,7 @@
       <c r="BS99" s="76"/>
       <c r="BT99" s="76"/>
     </row>
-    <row r="100" spans="1:72" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="e">
         <f>A99+#REF!</f>
         <v>#REF!</v>

--- a/Class_Notes/2A_Fluid_Mech/FM2_2223_GANTT_chart_v01_16sep22.xlsx
+++ b/Class_Notes/2A_Fluid_Mech/FM2_2223_GANTT_chart_v01_16sep22.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasper\Documents\MarkdownMaster\Class_Notes\2A_Fluid_Mech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarkdownMaster\Class_Notes\2A_Fluid_Mech\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D9950F-1EA9-4182-A667-E0D3CB81411E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22320" windowHeight="13180" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GANTT chart for students" sheetId="12" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,6 +24,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="142">
   <si>
     <t>Introduction</t>
   </si>
@@ -464,7 +467,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
@@ -1253,29 +1256,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BU100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomRight" activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="1" max="6" width="10.796875" style="1"/>
+    <col min="7" max="7" width="6.69921875" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="12" max="12" width="33" bestFit="1" customWidth="1"/>
     <col min="13" max="72" width="3" style="1" customWidth="1"/>
-    <col min="73" max="73" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="6.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:73" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -1466,7 +1469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="63" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:73" s="63" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>116</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>44904</v>
       </c>
     </row>
-    <row r="3" spans="1:73" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:73" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1853,7 +1856,7 @@
       </c>
       <c r="BU3" s="1"/>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -2045,7 +2048,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>117</v>
       </c>
@@ -2110,7 +2113,7 @@
       <c r="BT5" s="24"/>
       <c r="BU5" s="3"/>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>0</v>
       </c>
@@ -2201,7 +2204,7 @@
       <c r="BT6" s="47"/>
       <c r="BU6" s="3"/>
     </row>
-    <row r="7" spans="1:73" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:73" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2290,7 +2293,7 @@
       <c r="BT7" s="47"/>
       <c r="BU7" s="3"/>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="e">
         <f>A7+#REF!</f>
         <v>#REF!</v>
@@ -2338,7 +2341,7 @@
       <c r="BP8" s="16"/>
       <c r="BT8" s="17"/>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="e">
         <f>A8+#REF!</f>
         <v>#REF!</v>
@@ -2389,7 +2392,7 @@
       <c r="BP9" s="16"/>
       <c r="BT9" s="17"/>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="e">
         <f>A9+#REF!</f>
         <v>#REF!</v>
@@ -2440,7 +2443,7 @@
       <c r="BP10" s="16"/>
       <c r="BT10" s="17"/>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="e">
         <f>A10+#REF!</f>
         <v>#REF!</v>
@@ -2491,7 +2494,7 @@
       <c r="BP11" s="16"/>
       <c r="BT11" s="17"/>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="e">
         <f>A11+#REF!</f>
         <v>#REF!</v>
@@ -2542,7 +2545,7 @@
       <c r="BP12" s="16"/>
       <c r="BT12" s="17"/>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="e">
         <f>A12+#REF!</f>
         <v>#REF!</v>
@@ -2590,7 +2593,7 @@
       <c r="BP13" s="16"/>
       <c r="BT13" s="17"/>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="e">
         <f>A13+#REF!</f>
         <v>#REF!</v>
@@ -2641,7 +2644,7 @@
       <c r="BP14" s="16"/>
       <c r="BT14" s="17"/>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="e">
         <f>A14+#REF!</f>
         <v>#REF!</v>
@@ -2692,7 +2695,7 @@
       <c r="BP15" s="16"/>
       <c r="BT15" s="17"/>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="e">
         <f>A15+#REF!</f>
         <v>#REF!</v>
@@ -2743,7 +2746,7 @@
       <c r="BP16" s="16"/>
       <c r="BT16" s="17"/>
     </row>
-    <row r="17" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="e">
         <f>A16+#REF!</f>
         <v>#REF!</v>
@@ -2829,7 +2832,7 @@
       <c r="BS17" s="28"/>
       <c r="BT17" s="30"/>
     </row>
-    <row r="18" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="e">
         <f>A17+#REF!</f>
         <v>#REF!</v>
@@ -2913,7 +2916,7 @@
       <c r="BS18" s="28"/>
       <c r="BT18" s="30"/>
     </row>
-    <row r="19" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="e">
         <f>A18+#REF!</f>
         <v>#REF!</v>
@@ -2998,7 +3001,7 @@
       <c r="BS19" s="28"/>
       <c r="BT19" s="30"/>
     </row>
-    <row r="20" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="e">
         <f>A19+#REF!</f>
         <v>#REF!</v>
@@ -3033,7 +3036,9 @@
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="30"/>
-      <c r="R20" s="31"/>
+      <c r="R20" s="31" t="s">
+        <v>141</v>
+      </c>
       <c r="S20" s="28"/>
       <c r="T20" s="28"/>
       <c r="U20" s="28"/>
@@ -3089,7 +3094,7 @@
       <c r="BS20" s="28"/>
       <c r="BT20" s="30"/>
     </row>
-    <row r="21" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="e">
         <f>A20+#REF!</f>
         <v>#REF!</v>
@@ -3174,7 +3179,7 @@
       <c r="BS21" s="28"/>
       <c r="BT21" s="30"/>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="e">
         <f>A21+#REF!</f>
         <v>#REF!</v>
@@ -3223,7 +3228,7 @@
       <c r="BP22" s="16"/>
       <c r="BT22" s="17"/>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="e">
         <f>A22+#REF!</f>
         <v>#REF!</v>
@@ -3272,7 +3277,7 @@
       <c r="BP23" s="16"/>
       <c r="BT23" s="17"/>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="e">
         <f>A23+#REF!</f>
         <v>#REF!</v>
@@ -3321,7 +3326,7 @@
       <c r="BP24" s="16"/>
       <c r="BT24" s="17"/>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="e">
         <f>A24+#REF!</f>
         <v>#REF!</v>
@@ -3370,7 +3375,7 @@
       <c r="BP25" s="16"/>
       <c r="BT25" s="17"/>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="e">
         <f>A25+#REF!</f>
         <v>#REF!</v>
@@ -3419,7 +3424,7 @@
       <c r="BP26" s="16"/>
       <c r="BT26" s="17"/>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="e">
         <f>A26+#REF!</f>
         <v>#REF!</v>
@@ -3468,7 +3473,7 @@
       <c r="BP27" s="16"/>
       <c r="BT27" s="17"/>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="e">
         <f>A27+#REF!</f>
         <v>#REF!</v>
@@ -3517,7 +3522,7 @@
       <c r="BP28" s="16"/>
       <c r="BT28" s="17"/>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="e">
         <f>A28+#REF!</f>
         <v>#REF!</v>
@@ -3566,7 +3571,7 @@
       <c r="BP29" s="16"/>
       <c r="BT29" s="17"/>
     </row>
-    <row r="30" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="e">
         <f>A29+#REF!</f>
         <v>#REF!</v>
@@ -3647,7 +3652,7 @@
       <c r="BS30" s="34"/>
       <c r="BT30" s="35"/>
     </row>
-    <row r="31" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="e">
         <f>A30+#REF!</f>
         <v>#REF!</v>
@@ -3734,7 +3739,7 @@
       <c r="BS31" s="34"/>
       <c r="BT31" s="35"/>
     </row>
-    <row r="32" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="e">
         <f>A31+#REF!</f>
         <v>#REF!</v>
@@ -3824,7 +3829,7 @@
       <c r="BS32" s="49"/>
       <c r="BT32" s="47"/>
     </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="e">
         <f>A32+#REF!</f>
         <v>#REF!</v>
@@ -3874,7 +3879,7 @@
       <c r="BP33" s="16"/>
       <c r="BT33" s="17"/>
     </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="e">
         <f>A33+#REF!</f>
         <v>#REF!</v>
@@ -3924,7 +3929,7 @@
       <c r="BP34" s="16"/>
       <c r="BT34" s="17"/>
     </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="e">
         <f>A34+#REF!</f>
         <v>#REF!</v>
@@ -3974,7 +3979,7 @@
       <c r="BP35" s="16"/>
       <c r="BT35" s="17"/>
     </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="e">
         <f>A35+#REF!</f>
         <v>#REF!</v>
@@ -4024,7 +4029,7 @@
       <c r="BP36" s="16"/>
       <c r="BT36" s="17"/>
     </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="e">
         <f>A36+#REF!</f>
         <v>#REF!</v>
@@ -4075,7 +4080,7 @@
       <c r="BP37" s="16"/>
       <c r="BT37" s="17"/>
     </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="e">
         <f>A37+#REF!</f>
         <v>#REF!</v>
@@ -4127,7 +4132,7 @@
       <c r="BP38" s="16"/>
       <c r="BT38" s="17"/>
     </row>
-    <row r="39" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="e">
         <f>A38+#REF!</f>
         <v>#REF!</v>
@@ -4210,7 +4215,7 @@
       <c r="BS39" s="34"/>
       <c r="BT39" s="35"/>
     </row>
-    <row r="40" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="e">
         <f>A39+#REF!</f>
         <v>#REF!</v>
@@ -4293,7 +4298,7 @@
       <c r="BS40" s="34"/>
       <c r="BT40" s="35"/>
     </row>
-    <row r="41" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="e">
         <f>A40+#REF!</f>
         <v>#REF!</v>
@@ -4383,7 +4388,7 @@
       <c r="BS41" s="49"/>
       <c r="BT41" s="47"/>
     </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="e">
         <f>A41+#REF!</f>
         <v>#REF!</v>
@@ -4433,7 +4438,7 @@
       <c r="BP42" s="16"/>
       <c r="BT42" s="17"/>
     </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="e">
         <f>A42+#REF!</f>
         <v>#REF!</v>
@@ -4481,7 +4486,7 @@
       <c r="BP43" s="16"/>
       <c r="BT43" s="17"/>
     </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="e">
         <f>A43+#REF!</f>
         <v>#REF!</v>
@@ -4529,7 +4534,7 @@
       <c r="BP44" s="16"/>
       <c r="BT44" s="17"/>
     </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="e">
         <f>A44+#REF!</f>
         <v>#REF!</v>
@@ -4577,7 +4582,7 @@
       <c r="BP45" s="16"/>
       <c r="BT45" s="17"/>
     </row>
-    <row r="46" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="e">
         <f>A45+#REF!</f>
         <v>#REF!</v>
@@ -4631,7 +4636,7 @@
       <c r="BP46" s="16"/>
       <c r="BT46" s="17"/>
     </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="e">
         <f>A46+#REF!</f>
         <v>#REF!</v>
@@ -4680,7 +4685,7 @@
       <c r="BP47" s="16"/>
       <c r="BT47" s="17"/>
     </row>
-    <row r="48" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="e">
         <f>A47+#REF!</f>
         <v>#REF!</v>
@@ -4729,7 +4734,7 @@
       <c r="BP48" s="16"/>
       <c r="BT48" s="17"/>
     </row>
-    <row r="49" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="e">
         <f>A48+#REF!</f>
         <v>#REF!</v>
@@ -4813,7 +4818,7 @@
       <c r="BS49" s="28"/>
       <c r="BT49" s="30"/>
     </row>
-    <row r="50" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="e">
         <f>A49+#REF!</f>
         <v>#REF!</v>
@@ -4898,7 +4903,7 @@
       <c r="BS50" s="28"/>
       <c r="BT50" s="30"/>
     </row>
-    <row r="51" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="e">
         <f>A50+#REF!</f>
         <v>#REF!</v>
@@ -4983,7 +4988,7 @@
       <c r="BS51" s="28"/>
       <c r="BT51" s="30"/>
     </row>
-    <row r="52" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="e">
         <f>A51+#REF!</f>
         <v>#REF!</v>
@@ -5074,7 +5079,7 @@
       <c r="BS52" s="28"/>
       <c r="BT52" s="30"/>
     </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="e">
         <f>A52+#REF!</f>
         <v>#REF!</v>
@@ -5124,7 +5129,7 @@
       <c r="BP53" s="16"/>
       <c r="BT53" s="17"/>
     </row>
-    <row r="54" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="e">
         <f>A53+#REF!</f>
         <v>#REF!</v>
@@ -5205,7 +5210,7 @@
       <c r="BS54" s="34"/>
       <c r="BT54" s="35"/>
     </row>
-    <row r="55" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="e">
         <f>A54+#REF!</f>
         <v>#REF!</v>
@@ -5286,7 +5291,7 @@
       <c r="BS55" s="34"/>
       <c r="BT55" s="35"/>
     </row>
-    <row r="56" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="e">
         <f>A55+#REF!</f>
         <v>#REF!</v>
@@ -5374,7 +5379,7 @@
       <c r="BS56" s="49"/>
       <c r="BT56" s="47"/>
     </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="e">
         <f>A56+#REF!</f>
         <v>#REF!</v>
@@ -5421,7 +5426,7 @@
       <c r="BP57" s="16"/>
       <c r="BT57" s="17"/>
     </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="e">
         <f>A57+#REF!</f>
         <v>#REF!</v>
@@ -5469,7 +5474,7 @@
       <c r="BP58" s="16"/>
       <c r="BT58" s="17"/>
     </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="e">
         <f>A58+#REF!</f>
         <v>#REF!</v>
@@ -5516,7 +5521,7 @@
       <c r="BP59" s="16"/>
       <c r="BT59" s="17"/>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="e">
         <f>A59+#REF!</f>
         <v>#REF!</v>
@@ -5563,7 +5568,7 @@
       <c r="BP60" s="16"/>
       <c r="BT60" s="17"/>
     </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="e">
         <f>A60+#REF!</f>
         <v>#REF!</v>
@@ -5610,7 +5615,7 @@
       <c r="BP61" s="16"/>
       <c r="BT61" s="17"/>
     </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="e">
         <f>A61+#REF!</f>
         <v>#REF!</v>
@@ -5657,7 +5662,7 @@
       <c r="BP62" s="16"/>
       <c r="BT62" s="17"/>
     </row>
-    <row r="63" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="e">
         <f>A62+#REF!</f>
         <v>#REF!</v>
@@ -5743,7 +5748,7 @@
       <c r="BS63" s="28"/>
       <c r="BT63" s="30"/>
     </row>
-    <row r="64" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="e">
         <f>A63+#REF!</f>
         <v>#REF!</v>
@@ -5834,7 +5839,7 @@
       <c r="BS64" s="28"/>
       <c r="BT64" s="30"/>
     </row>
-    <row r="65" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="e">
         <f>A64+#REF!</f>
         <v>#REF!</v>
@@ -5919,7 +5924,7 @@
       <c r="BS65" s="28"/>
       <c r="BT65" s="30"/>
     </row>
-    <row r="66" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="e">
         <f>A65+#REF!</f>
         <v>#REF!</v>
@@ -5968,7 +5973,7 @@
       <c r="BP66" s="16"/>
       <c r="BT66" s="17"/>
     </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="e">
         <f>A66+#REF!</f>
         <v>#REF!</v>
@@ -6017,7 +6022,7 @@
       <c r="BP67" s="16"/>
       <c r="BT67" s="17"/>
     </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="e">
         <f>A67+#REF!</f>
         <v>#REF!</v>
@@ -6066,7 +6071,7 @@
       <c r="BP68" s="16"/>
       <c r="BT68" s="17"/>
     </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="e">
         <f>A68+#REF!</f>
         <v>#REF!</v>
@@ -6115,7 +6120,7 @@
       <c r="BP69" s="16"/>
       <c r="BT69" s="17"/>
     </row>
-    <row r="70" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="e">
         <f>A69+#REF!</f>
         <v>#REF!</v>
@@ -6196,7 +6201,7 @@
       <c r="BS70" s="34"/>
       <c r="BT70" s="35"/>
     </row>
-    <row r="71" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="e">
         <f>A70+#REF!</f>
         <v>#REF!</v>
@@ -6283,7 +6288,7 @@
       <c r="BS71" s="34"/>
       <c r="BT71" s="35"/>
     </row>
-    <row r="72" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="e">
         <f>A71+#REF!</f>
         <v>#REF!</v>
@@ -6371,7 +6376,7 @@
       <c r="BS72" s="49"/>
       <c r="BT72" s="47"/>
     </row>
-    <row r="73" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="e">
         <f>A72+#REF!</f>
         <v>#REF!</v>
@@ -6420,7 +6425,7 @@
       <c r="BP73" s="16"/>
       <c r="BT73" s="17"/>
     </row>
-    <row r="74" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="e">
         <f>A73+#REF!</f>
         <v>#REF!</v>
@@ -6469,7 +6474,7 @@
       <c r="BP74" s="16"/>
       <c r="BT74" s="17"/>
     </row>
-    <row r="75" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="e">
         <f>A74+#REF!</f>
         <v>#REF!</v>
@@ -6518,7 +6523,7 @@
       <c r="BP75" s="16"/>
       <c r="BT75" s="17"/>
     </row>
-    <row r="76" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="e">
         <f>A75+#REF!</f>
         <v>#REF!</v>
@@ -6567,7 +6572,7 @@
       <c r="BP76" s="16"/>
       <c r="BT76" s="17"/>
     </row>
-    <row r="77" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="e">
         <f>A76+#REF!</f>
         <v>#REF!</v>
@@ -6617,7 +6622,7 @@
       <c r="BP77" s="16"/>
       <c r="BT77" s="17"/>
     </row>
-    <row r="78" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="e">
         <f>A77+#REF!</f>
         <v>#REF!</v>
@@ -6701,7 +6706,7 @@
       <c r="BS78" s="28"/>
       <c r="BT78" s="30"/>
     </row>
-    <row r="79" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="e">
         <f>A78+#REF!</f>
         <v>#REF!</v>
@@ -6792,7 +6797,7 @@
       <c r="BS79" s="28"/>
       <c r="BT79" s="30"/>
     </row>
-    <row r="80" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="e">
         <f>A79+#REF!</f>
         <v>#REF!</v>
@@ -6877,7 +6882,7 @@
       <c r="BS80" s="28"/>
       <c r="BT80" s="30"/>
     </row>
-    <row r="81" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="e">
         <f>A80+#REF!</f>
         <v>#REF!</v>
@@ -6926,7 +6931,7 @@
       <c r="BP81" s="16"/>
       <c r="BT81" s="17"/>
     </row>
-    <row r="82" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="e">
         <f>A81+#REF!</f>
         <v>#REF!</v>
@@ -7007,7 +7012,7 @@
       <c r="BS82" s="34"/>
       <c r="BT82" s="35"/>
     </row>
-    <row r="83" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="e">
         <f>A82+#REF!</f>
         <v>#REF!</v>
@@ -7094,7 +7099,7 @@
       <c r="BS83" s="34"/>
       <c r="BT83" s="35"/>
     </row>
-    <row r="84" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:72" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="e">
         <f>A83+#REF!</f>
         <v>#REF!</v>
@@ -7182,7 +7187,7 @@
       <c r="BS84" s="49"/>
       <c r="BT84" s="47"/>
     </row>
-    <row r="85" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="e">
         <f>A84+#REF!</f>
         <v>#REF!</v>
@@ -7231,7 +7236,7 @@
       <c r="BP85" s="16"/>
       <c r="BT85" s="17"/>
     </row>
-    <row r="86" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="e">
         <f>A85+#REF!</f>
         <v>#REF!</v>
@@ -7280,7 +7285,7 @@
       <c r="BP86" s="16"/>
       <c r="BT86" s="17"/>
     </row>
-    <row r="87" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="e">
         <f>A86+#REF!</f>
         <v>#REF!</v>
@@ -7329,7 +7334,7 @@
       <c r="BP87" s="16"/>
       <c r="BT87" s="17"/>
     </row>
-    <row r="88" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="e">
         <f>A87+#REF!</f>
         <v>#REF!</v>
@@ -7378,7 +7383,7 @@
       <c r="BP88" s="16"/>
       <c r="BT88" s="17"/>
     </row>
-    <row r="89" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="e">
         <f>A88+#REF!</f>
         <v>#REF!</v>
@@ -7426,7 +7431,7 @@
       <c r="BP89" s="16"/>
       <c r="BT89" s="17"/>
     </row>
-    <row r="90" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="e">
         <f>A89+#REF!</f>
         <v>#REF!</v>
@@ -7480,7 +7485,7 @@
       <c r="BP90" s="16"/>
       <c r="BT90" s="17"/>
     </row>
-    <row r="91" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="e">
         <f>A90+#REF!</f>
         <v>#REF!</v>
@@ -7564,7 +7569,7 @@
       <c r="BS91" s="28"/>
       <c r="BT91" s="30"/>
     </row>
-    <row r="92" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="e">
         <f>A91+#REF!</f>
         <v>#REF!</v>
@@ -7649,7 +7654,7 @@
       <c r="BS92" s="28"/>
       <c r="BT92" s="30"/>
     </row>
-    <row r="93" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="e">
         <f>A92+#REF!</f>
         <v>#REF!</v>
@@ -7734,7 +7739,7 @@
       <c r="BS93" s="28"/>
       <c r="BT93" s="30"/>
     </row>
-    <row r="94" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="e">
         <f>A93+#REF!</f>
         <v>#REF!</v>
@@ -7815,7 +7820,7 @@
       <c r="BS94" s="34"/>
       <c r="BT94" s="35"/>
     </row>
-    <row r="95" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="e">
         <f>A94+#REF!</f>
         <v>#REF!</v>
@@ -7901,7 +7906,7 @@
       <c r="BS95" s="34"/>
       <c r="BT95" s="35"/>
     </row>
-    <row r="96" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="e">
         <f>A95+#REF!</f>
         <v>#REF!</v>
@@ -7991,7 +7996,7 @@
       <c r="BS96" s="52"/>
       <c r="BT96" s="53"/>
     </row>
-    <row r="97" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="e">
         <f>A96+#REF!</f>
         <v>#REF!</v>
@@ -8076,7 +8081,7 @@
       <c r="BS97" s="34"/>
       <c r="BT97" s="35"/>
     </row>
-    <row r="98" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="e">
         <f>A97+#REF!</f>
         <v>#REF!</v>
@@ -8165,7 +8170,7 @@
       <c r="BS98" s="34"/>
       <c r="BT98" s="35"/>
     </row>
-    <row r="99" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="e">
         <f>A98+#REF!</f>
         <v>#REF!</v>
@@ -8219,7 +8224,7 @@
       <c r="BS99" s="76"/>
       <c r="BT99" s="76"/>
     </row>
-    <row r="100" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="e">
         <f>A99+#REF!</f>
         <v>#REF!</v>

--- a/Class_Notes/2A_Fluid_Mech/FM2_2223_GANTT_chart_v01_16sep22.xlsx
+++ b/Class_Notes/2A_Fluid_Mech/FM2_2223_GANTT_chart_v01_16sep22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarkdownMaster\Class_Notes\2A_Fluid_Mech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D9950F-1EA9-4182-A667-E0D3CB81411E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A84F6F3-6933-4E22-B538-4543DFF649DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="142">
   <si>
     <t>Introduction</t>
   </si>
@@ -1264,7 +1264,7 @@
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
-      <selection pane="bottomRight" activeCell="S22" sqref="S22"/>
+      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3205,7 +3205,9 @@
       <c r="M22" s="16"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="16"/>
-      <c r="S22" s="26"/>
+      <c r="S22" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="V22" s="17"/>
       <c r="W22" s="16"/>
       <c r="AA22" s="17"/>

--- a/Class_Notes/2A_Fluid_Mech/FM2_2223_GANTT_chart_v01_16sep22.xlsx
+++ b/Class_Notes/2A_Fluid_Mech/FM2_2223_GANTT_chart_v01_16sep22.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarkdownMaster\Class_Notes\2A_Fluid_Mech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A84F6F3-6933-4E22-B538-4543DFF649DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411D2A52-2E5D-4833-B1C8-43AFA981119F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="142">
   <si>
     <t>Introduction</t>
   </si>
@@ -1260,11 +1260,11 @@
   <dimension ref="A1:BU100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="M26" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
-      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
+      <selection pane="bottomRight" activeCell="AA42" sqref="AA42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3256,7 +3256,9 @@
       <c r="M23" s="16"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="16"/>
-      <c r="S23" s="26"/>
+      <c r="S23" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="V23" s="17"/>
       <c r="W23" s="16"/>
       <c r="AA23" s="17"/>
@@ -3305,7 +3307,9 @@
       <c r="M24" s="16"/>
       <c r="Q24" s="17"/>
       <c r="R24" s="16"/>
-      <c r="T24" s="26"/>
+      <c r="T24" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="V24" s="17"/>
       <c r="W24" s="16"/>
       <c r="AA24" s="17"/>
@@ -3860,7 +3864,9 @@
       <c r="Q33" s="17"/>
       <c r="R33" s="16"/>
       <c r="V33" s="17"/>
-      <c r="W33" s="39"/>
+      <c r="W33" s="39" t="s">
+        <v>141</v>
+      </c>
       <c r="AA33" s="17"/>
       <c r="AB33" s="16"/>
       <c r="AF33" s="17"/>
@@ -3910,7 +3916,9 @@
       <c r="Q34" s="17"/>
       <c r="R34" s="16"/>
       <c r="V34" s="17"/>
-      <c r="W34" s="39"/>
+      <c r="W34" s="39" t="s">
+        <v>141</v>
+      </c>
       <c r="AA34" s="17"/>
       <c r="AB34" s="16"/>
       <c r="AF34" s="17"/>
@@ -3960,7 +3968,9 @@
       <c r="Q35" s="17"/>
       <c r="R35" s="16"/>
       <c r="V35" s="17"/>
-      <c r="W35" s="39"/>
+      <c r="W35" s="39" t="s">
+        <v>141</v>
+      </c>
       <c r="AA35" s="17"/>
       <c r="AB35" s="16"/>
       <c r="AF35" s="17"/>
@@ -4010,7 +4020,9 @@
       <c r="Q36" s="17"/>
       <c r="R36" s="16"/>
       <c r="V36" s="17"/>
-      <c r="W36" s="39"/>
+      <c r="W36" s="39" t="s">
+        <v>141</v>
+      </c>
       <c r="AA36" s="17"/>
       <c r="AB36" s="16"/>
       <c r="AF36" s="17"/>
@@ -4061,7 +4073,9 @@
       <c r="R37" s="16"/>
       <c r="V37" s="17"/>
       <c r="W37" s="16"/>
-      <c r="X37" s="26"/>
+      <c r="X37" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="AA37" s="17"/>
       <c r="AB37" s="16"/>
       <c r="AF37" s="17"/>
@@ -4112,8 +4126,12 @@
       <c r="R38" s="16"/>
       <c r="V38" s="17"/>
       <c r="W38" s="16"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="26"/>
+      <c r="Y38" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z38" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="AA38" s="17"/>
       <c r="AB38" s="16"/>
       <c r="AF38" s="17"/>
